--- a/Parts - Consoles.csv.xlsx
+++ b/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>RecordID</t>
   </si>
@@ -174,20 +174,21 @@
     <t>Created</t>
   </si>
   <si>
-    <t>390575</t>
-  </si>
-  <si>
-    <t>ELPE80717</t>
-  </si>
-  <si>
-    <t>ELLIPTICAL_DEVICE</t>
-  </si>
-  <si>
-    <t>AERO_POWER_RING_DISPLAY</t>
+    <t>385843</t>
+  </si>
+  <si>
+    <t>ETNT22116</t>
+  </si>
+  <si>
+    <t>TREADMILL_DEVICE</t>
+  </si>
+  <si>
+    <t>NO_DISPLAY</t>
   </si>
   <si>
     <t xml:space="preserve">Connect the power cord to the EQF1259. 
-Connect one end of the EQW1 to EQF1259 (BIKE1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect the ground wire (Green) to E-GND on EQF 1259. 
 Set Fixture Configurations:
 Using PC, load .xml configuration file, which is found in the RNDftp under the console name (Example: …RNDFtp\EBNT02117\Procedure) to the microSD card.
 Insert the microSD card face up into the microSD card slot.
@@ -207,45 +208,43 @@
     <t>Verify that the ESD bag is dissipative and it is printed on as per the drawing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensure the unit is packaged in an antistatic bag. 
+    <t>Verify that the General Warning is printed on the console or pulse bar.</t>
+  </si>
+  <si>
+    <t>Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-</t>
-  </si>
-  <si>
-    <t>Connect the 10-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press the iFIT sync button and verify a 4 character Hex in the middle of the display (Example: “DF69”). 
-Tap the Bluetooth icon on the top right of tablet screen
-In the pop up window, tap your machine choice and verify signal strength at 0.5m is (&gt;50%)
-Tap “OKAY”. The Bluetooth icon in the upper right of the tablet display will blink and then go solid blue. The console will show connection indicator.
-Tap the Bluetooth icon on the upper right on tablet screen and “UNPAIR” the console.
-</t>
-  </si>
-  <si>
-    <t>On the EQF1259, Press START.
-Verify that the Cadence(RPM) on the console and the EQF1259 match.</t>
-  </si>
-  <si>
-    <t>On the console, press the RESISTANCE + button. Verify the resistance level on the EQF1259 increases.  
-On the console, press the RESISTANCE - button. Verify the resistance level on the EQF1259 decreases.</t>
+If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
+  </si>
+  <si>
+    <t>Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+  </si>
+  <si>
+    <t>Insert Dead Man Key into console.</t>
+  </si>
+  <si>
+    <t>On the console, press random Quick speed buttons.
+Verify that the Speed on the console and EQF1259 match.</t>
   </si>
   <si>
     <t>On the console, press random Quick incline buttons.
 Verify that the Incline on the console and EQF1259 match.</t>
   </si>
   <si>
+    <t>Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
+  </si>
+  <si>
     <t>Hold the pulse bars and verify a pulse reading is displayed</t>
   </si>
   <si>
     <t>Press Display button to goto BLE Pulse screen.
 Press Start button.
-Tap the IFIT sync button on the console.
+Run manual workout on the console.
 Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
-    <t>On the console, press the Large Fan button to turn fan on. Fan should run on low.
+    <t>Connect the 3-pin fans to the console.
+On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again and the fan should run on high.
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
   </si>
@@ -255,11 +254,15 @@
 Adjust the volume to minimum and maximum level and verify a change.</t>
   </si>
   <si>
+    <t>Connect the HDMI cable to the TV.
+Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
+  </si>
+  <si>
     <t>On the EQF1259, turn off the Console power.
 Disconnect all wires and cables from the console.</t>
   </si>
   <si>
-    <t>PIP_GEN_ID-0</t>
+    <t>PIP Generator</t>
   </si>
   <si>
     <t>REV 0</t>
@@ -271,7 +274,7 @@
     <t>From chaos, springs new beginnings!</t>
   </si>
   <si>
-    <t>id-0</t>
+    <t>ID_0</t>
   </si>
   <si>
     <t>REV 1</t>
@@ -280,7 +283,7 @@
     <t>20171205</t>
   </si>
   <si>
-    <t>Created arrays for variables</t>
+    <t>Created arrays to add functionality for individual variables</t>
   </si>
   <si>
     <t>REV 2</t>
@@ -289,7 +292,7 @@
     <t>20171206</t>
   </si>
   <si>
-    <t>Added time stamping</t>
+    <t>Added time stamping and found no use but will leave in</t>
   </si>
   <si>
     <t>REV 3</t>
@@ -307,19 +310,16 @@
     <t>20171227</t>
   </si>
   <si>
-    <t>Converted to openpyxl</t>
-  </si>
-  <si>
-    <t>REV 5</t>
+    <t>Converted to openpyxl and functions on test x.xml</t>
+  </si>
+  <si>
+    <t>REV</t>
   </si>
   <si>
     <t>20180112</t>
   </si>
   <si>
-    <t>Killed trackvia full table</t>
-  </si>
-  <si>
-    <t>REV</t>
+    <t>Killed trackvia full table and will upload individual as created</t>
   </si>
   <si>
     <t>Let justice be done, though the heavens fall!</t>
@@ -903,44 +903,47 @@
       <c r="S2" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="W2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AP2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AX2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ2" s="2" t="n">
-        <v>43116.71516936342</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -964,106 +967,106 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.4"/>
     <col customWidth="1" max="2" min="2" width="12"/>
-    <col customWidth="1" max="3" min="3" width="56.4"/>
+    <col customWidth="1" max="3" min="3" width="79.2"/>
     <col customWidth="1" max="4" min="4" width="7.199999999999999"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43116.71431730324</v>
+        <v>43119.45376019676</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Parts - Consoles.csv.xlsx
+++ b/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>RecordID</t>
   </si>
@@ -114,6 +114,9 @@
     <t>Test Mode Image</t>
   </si>
   <si>
+    <t>Incline Calibration</t>
+  </si>
+  <si>
     <t>Display Test</t>
   </si>
   <si>
@@ -123,7 +126,7 @@
     <t>Button Test</t>
   </si>
   <si>
-    <t>Button TestImage</t>
+    <t>Button Test Image</t>
   </si>
   <si>
     <t>Drive Motor Output Test</t>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t>Updated</t>
-  </si>
-  <si>
-    <t>Created</t>
   </si>
   <si>
     <t>385843</t>
@@ -223,6 +223,25 @@
     <t>Insert Dead Man Key into console.</t>
   </si>
   <si>
+    <t>Touch user profile icon at the lower right  of the screen
+Touch settings
+Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
+Verify and Record.
+Press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>Touch the user profile icon on lower right of the screen
+Touch Settings
+Touch Maintainance
+Select Calibrate Incline
+Press Calibrate on EQF1259
+Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
+When calibration is complete, press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>Verify tablet display is lit and without flaws</t>
+  </si>
+  <si>
     <t>On the console, press random Quick speed buttons.
 Verify that the Speed on the console and EQF1259 match.</t>
   </si>
@@ -262,7 +281,7 @@
 Disconnect all wires and cables from the console.</t>
   </si>
   <si>
-    <t>PIP Generator</t>
+    <t>PIP_GEN_ID-0</t>
   </si>
   <si>
     <t>REV 0</t>
@@ -274,7 +293,7 @@
     <t>From chaos, springs new beginnings!</t>
   </si>
   <si>
-    <t>ID_0</t>
+    <t>id-0</t>
   </si>
   <si>
     <t>REV 1</t>
@@ -283,7 +302,7 @@
     <t>20171205</t>
   </si>
   <si>
-    <t>Created arrays to add functionality for individual variables</t>
+    <t>Created arrays for variables</t>
   </si>
   <si>
     <t>REV 2</t>
@@ -292,7 +311,7 @@
     <t>20171206</t>
   </si>
   <si>
-    <t>Added time stamping and found no use but will leave in</t>
+    <t>Added time stamping</t>
   </si>
   <si>
     <t>REV 3</t>
@@ -310,16 +329,19 @@
     <t>20171227</t>
   </si>
   <si>
-    <t>Converted to openpyxl and functions on test x.xml</t>
+    <t>Converted to openpyxl</t>
+  </si>
+  <si>
+    <t>REV 5</t>
+  </si>
+  <si>
+    <t>20180112</t>
+  </si>
+  <si>
+    <t>Killed trackvia full table</t>
   </si>
   <si>
     <t>REV</t>
-  </si>
-  <si>
-    <t>20180112</t>
-  </si>
-  <si>
-    <t>Killed trackvia full table and will upload individual as created</t>
   </si>
   <si>
     <t>Let justice be done, though the heavens fall!</t>
@@ -915,35 +937,47 @@
       <c r="AA2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="AH2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AO2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AX2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>43119.5863994213</v>
       </c>
     </row>
   </sheetData>
@@ -967,106 +1001,106 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.4"/>
     <col customWidth="1" max="2" min="2" width="12"/>
-    <col customWidth="1" max="3" min="3" width="79.2"/>
+    <col customWidth="1" max="3" min="3" width="56.4"/>
     <col customWidth="1" max="4" min="4" width="7.199999999999999"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43119.45376019676</v>
+        <v>43119.5863697338</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
